--- a/doc/1.개인폴더/최현우/99. 참고/게시판 요구사항 정의서 박종수.xlsx
+++ b/doc/1.개인폴더/최현우/99. 참고/게시판 요구사항 정의서 박종수.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="24795" windowHeight="12120"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="24795" windowHeight="12120" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="게시판 요구사항 정의서" sheetId="8" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>요구사항 정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 크롤링한 정보를 토대로 해당되는 금일 경기를 금일 경기 리스트에 입력할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 일정 게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자(회원,비회원)와 관리자는 승부예측 게시판에서 경기 일정을 클릭하면 경기 일정 리스트를 볼 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 조회 페이지에서 삭제 버튼을 눌렀을 때 삭제 메세지를 볼 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 결과 게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자(회원,비회원)와 관리자는 메인화면에서 경기 결과 게시판을 클릭하면 리스트를 볼 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 결과에 따라 해당 데이터베이스에 결과를 입력하고, 그것을 리스트형식으로 화면에 출력할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원과 관리자는 경기날짜, 경기결과, 경기시간, 경기게임센터, 구장, 비고를 볼 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자와 관리자는 리스트에서 제목을 클릭하여 경기 결과 상세 조회를 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 결과 상세 조회시 나타나는 상세 정보는 경기결과,경기내용,투수기록, 타자기록, 댓글리스트로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 댓글 내용이 부적절한 내용이라고 판단되면 비밀번호 일치여부와 상관없이 댓글을 제거할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원과 관리자는 경기날짜, 경기시간, 경기게임센터, 구장, 비고를 볼 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 해당 경기일정 게시글의 정보가 부적절하다고 판단 시 그 게시글을 수정 할 수 있어야 하며 해당 경기 일정 게시글은 데이터베이스에서 또한 갱신된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 등록된 게시글이 부적절하다고 판단 시 그 게시글을 삭제 할 수 있어야 하며 해당 경기 일정 게시글은 데이터베이스에서 삭제된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원은 타 회원이 등록한 댓글이 부적잘하다고 판단하면 신고버튼을 누를 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 게시글을 수정 할 수 있어야 하며 해당 경기 일정 게시글은 데이터베이스에서 또한 갱신된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 게시글을 삭제 할 수 있어야 하며 해당 경기 일정 게시글은 데이터베이스에서 삭제된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>승부 예측 게시판에서 볼 수 있는 정보는 승부 예측 포인트별 회원 순위 및 해당 일에 해당하는 경기 리스트로 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,31 +141,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자는 크롤링한 정보를 토대로 해당되는 금일 경기를 금일 경기 리스트에 입력할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자는 상세정보 페이지에서 팀별 승, 무, 패를 투표할 수 있고 그 정보는 해당 경기 예측 현황 그래프에서 반영되어 투표한 인원을 보여줄 수 있어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>승부 예측 상세 페이지에서 조회할 수 있는 정보는 팀 경기, 경기 예측 현황, 누적승패, 팀승률, 최근 상대전적으로 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경기 일정 게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자(회원,비회원)와 관리자는 승부예측 게시판에서 경기 일정을 클릭하면 경기 일정 리스트를 볼 수 있어야 한다.</t>
+    <t>해당 리스트는 월별로 카테고리화 하여 해당 달에 해당하는 모든 경기를 조회할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -89,99 +157,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>관리자는 크롤링하여 저장한 해당 데이터베이스에 저장된 경기일정을 리스트 형식으로 입력할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자와 관리자는 리스트에서 제목을 클릭하여 경기 일정 상세 조회를 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 일정 조회시 나타나는 상세 정보는 시즌 순위, 승점, 시즌 기록, 시즌 총 득/실점, 최근 상대 전적으로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자(회원,비회원)와 관리자가 리스트에서 볼 수 있는 정보는 시즌 내 팀별 경기결과로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>해당 리스트는 월별로 카테고리화 하여 해당 달에 해당하는 모든 경기를 조회할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관리자는 조회 페이지에서 삭제 버튼을 눌렀을 때 삭제 메세지를 볼 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기 결과 게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자(회원,비회원)와 관리자는 메인화면에서 경기 결과 게시판을 클릭하면 리스트를 볼 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자는 결과에 따라 해당 데이터베이스에 결과를 입력하고, 그것을 리스트형식으로 화면에 출력할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원과 관리자는 경기날짜, 경기결과, 경기시간, 경기게임센터, 구장, 비고를 볼 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자와 관리자는 리스트에서 제목을 클릭하여 경기 결과 상세 조회를 할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기 결과 상세 조회시 나타나는 상세 정보는 경기결과,경기내용,투수기록, 타자기록, 댓글리스트로 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자는 댓글 내용이 부적절한 내용이라고 판단되면 비밀번호 일치여부와 상관없이 댓글을 제거할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자는 크롤링하여 저장한 해당 데이터베이스에 저장된 경기일정을 리스트 형식으로 입력할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원과 관리자는 경기날짜, 경기시간, 경기게임센터, 구장, 비고를 볼 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자와 관리자는 리스트에서 제목을 클릭하여 경기 일정 상세 조회를 할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기 일정 조회시 나타나는 상세 정보는 시즌 순위, 승점, 시즌 기록, 시즌 총 득/실점, 최근 상대 전적으로 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자(회원,비회원)와 관리자가 리스트에서 볼 수 있는 정보는 시즌 내 팀별 경기결과로 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자는 해당 경기일정 게시글의 정보가 부적절하다고 판단 시 그 게시글을 수정 할 수 있어야 하며 해당 경기 일정 게시글은 데이터베이스에서 또한 갱신된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자는 등록된 게시글이 부적절하다고 판단 시 그 게시글을 삭제 할 수 있어야 하며 해당 경기 일정 게시글은 데이터베이스에서 삭제된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>본인을 포함한 모든 사용자는 상세 글 보기 조회에서 댓글을 작성하고 그 내용을 확인할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원은 타 회원이 등록한 댓글이 부적잘하다고 판단하면 신고버튼을 누를 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자는 게시글을 수정 할 수 있어야 하며 해당 경기 일정 게시글은 데이터베이스에서 또한 갱신된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자는 게시글을 삭제 할 수 있어야 하며 해당 경기 일정 게시글은 데이터베이스에서 삭제된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +275,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,10 +478,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -479,87 +534,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,6 +672,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -684,6 +707,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -859,359 +883,360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="134.75" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="131.25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="F1" s="12" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="32" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
+      <c r="B7" s="21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="34"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="35" t="s">
+      <c r="C7" s="38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="34"/>
-      <c r="B7" s="32" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C9" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="34"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="35" t="s">
+      <c r="B11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="20"/>
-      <c r="B9" s="9" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="7" customFormat="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="21" t="s">
+      <c r="B23" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="22" t="s">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="23"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="24" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="23"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="24" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="23"/>
-      <c r="B14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="23"/>
-      <c r="B15" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="23"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="23"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="23"/>
-      <c r="B18" s="8" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="29"/>
+      <c r="B30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
+      <c r="B33" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="23"/>
-      <c r="B19" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="23"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="28"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="27"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="25" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="29"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="23"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="23"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="23"/>
-      <c r="B26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="23"/>
-      <c r="B27" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="23"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="23"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="23"/>
-      <c r="B30" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="23"/>
-      <c r="B31" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="23"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="23"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="23"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="3"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:A9"/>
     <mergeCell ref="F20:L20"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="F1:L2"/>
@@ -1228,7 +1253,6 @@
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
